--- a/网站项目文档/6数据库设计&文档&字段说明&sql文件/SunOnlineSQL.xlsx
+++ b/网站项目文档/6数据库设计&文档&字段说明&sql文件/SunOnlineSQL.xlsx
@@ -398,10 +398,10 @@
     <t>存储图片存储路径（高清图片）</t>
   </si>
   <si>
-    <t>pic_lib_type</t>
-  </si>
-  <si>
-    <t>存储图片类型，区分属于哪个学校</t>
+    <t>pic_lib_school</t>
+  </si>
+  <si>
+    <t>存储图片所属学校名称，区分属于哪个学校</t>
   </si>
   <si>
     <t>pic_lib_uploader</t>
@@ -422,20 +422,13 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="18"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -486,13 +479,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -506,6 +492,14 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -552,6 +546,14 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -898,92 +900,98 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="47">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -992,56 +1000,56 @@
     <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1051,17 +1059,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="47">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
     <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
@@ -1072,43 +1077,45 @@
     <cellStyle name="差" xfId="7" builtinId="27"/>
     <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
     <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="百分比" xfId="10" builtinId="5"/>
-    <cellStyle name="注释" xfId="11" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="12" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="13" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="14" builtinId="11"/>
-    <cellStyle name="标题" xfId="15" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="16" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="17" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="18" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="19" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="20" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="21" builtinId="44"/>
-    <cellStyle name="输出" xfId="22" builtinId="21"/>
-    <cellStyle name="计算" xfId="23" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="24" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="25" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="26" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="27" builtinId="24"/>
-    <cellStyle name="汇总" xfId="28" builtinId="25"/>
-    <cellStyle name="好" xfId="29" builtinId="26"/>
-    <cellStyle name="适中" xfId="30" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="31" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="32" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="33" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="34" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="35" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="36" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="37" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="38" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="39" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="40" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="42" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="43" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="44" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="45" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="46" builtinId="52"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
 </styleSheet>
@@ -1375,8 +1382,8 @@
   <sheetPr/>
   <dimension ref="A1:L50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" topLeftCell="G27" workbookViewId="0">
+      <selection activeCell="L49" sqref="L49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83333333333333" defaultRowHeight="13.5"/>
@@ -1399,10 +1406,10 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
@@ -1426,772 +1433,772 @@
       <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="2" ht="14.25" spans="1:12">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="3">
-        <v>1</v>
-      </c>
-      <c r="E2" s="3">
-        <v>1</v>
-      </c>
-      <c r="F2" s="3">
-        <v>1</v>
-      </c>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3">
-        <v>1</v>
-      </c>
-      <c r="K2" s="3"/>
-      <c r="L2" s="4" t="s">
+      <c r="D2" s="2">
+        <v>1</v>
+      </c>
+      <c r="E2" s="2">
+        <v>1</v>
+      </c>
+      <c r="F2" s="2">
+        <v>1</v>
+      </c>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2">
+        <v>1</v>
+      </c>
+      <c r="K2" s="2"/>
+      <c r="L2" s="3" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="3" ht="14.25" spans="1:12">
-      <c r="A3" s="3"/>
-      <c r="B3" s="4" t="s">
+      <c r="A3" s="2"/>
+      <c r="B3" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3">
-        <v>1</v>
-      </c>
-      <c r="F3" s="3">
-        <v>1</v>
-      </c>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="4" t="s">
+      <c r="D3" s="2"/>
+      <c r="E3" s="2">
+        <v>1</v>
+      </c>
+      <c r="F3" s="2">
+        <v>1</v>
+      </c>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="3" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="4" ht="14.25" spans="1:12">
-      <c r="A4" s="3"/>
-      <c r="B4" s="4" t="s">
+      <c r="A4" s="2"/>
+      <c r="B4" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3">
-        <v>1</v>
-      </c>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
-      <c r="L4" s="4" t="s">
+      <c r="D4" s="2"/>
+      <c r="E4" s="2">
+        <v>1</v>
+      </c>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="3" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="5" ht="14.25" spans="1:12">
-      <c r="A5" s="3"/>
-      <c r="B5" s="4" t="s">
+      <c r="A5" s="2"/>
+      <c r="B5" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3">
-        <v>1</v>
-      </c>
-      <c r="F5" s="3">
-        <v>1</v>
-      </c>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-      <c r="K5" s="3"/>
-      <c r="L5" s="4" t="s">
+      <c r="D5" s="2"/>
+      <c r="E5" s="2">
+        <v>1</v>
+      </c>
+      <c r="F5" s="2">
+        <v>1</v>
+      </c>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="3" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="6" spans="4:11">
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="5"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
     </row>
     <row r="7" ht="14.25" spans="1:12">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="5">
-        <v>1</v>
-      </c>
-      <c r="E7" s="3">
-        <v>1</v>
-      </c>
-      <c r="F7" s="3">
-        <v>1</v>
-      </c>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5">
-        <v>1</v>
-      </c>
-      <c r="K7" s="5"/>
-      <c r="L7" s="4" t="s">
+      <c r="D7" s="4">
+        <v>1</v>
+      </c>
+      <c r="E7" s="2">
+        <v>1</v>
+      </c>
+      <c r="F7" s="2">
+        <v>1</v>
+      </c>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4">
+        <v>1</v>
+      </c>
+      <c r="K7" s="4"/>
+      <c r="L7" s="3" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="8" ht="14.25" spans="1:12">
-      <c r="A8" s="5"/>
-      <c r="B8" s="4" t="s">
+      <c r="A8" s="4"/>
+      <c r="B8" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E8" s="3">
-        <v>1</v>
-      </c>
-      <c r="F8" s="3">
-        <v>1</v>
-      </c>
-      <c r="L8" s="4" t="s">
+      <c r="E8" s="2">
+        <v>1</v>
+      </c>
+      <c r="F8" s="2">
+        <v>1</v>
+      </c>
+      <c r="L8" s="3" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="9" ht="14.25" spans="1:12">
-      <c r="A9" s="5"/>
-      <c r="B9" s="4" t="s">
+      <c r="A9" s="4"/>
+      <c r="B9" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E9" s="3">
-        <v>1</v>
-      </c>
-      <c r="F9" s="3">
-        <v>1</v>
-      </c>
-      <c r="L9" s="4" t="s">
+      <c r="E9" s="2">
+        <v>1</v>
+      </c>
+      <c r="F9" s="2">
+        <v>1</v>
+      </c>
+      <c r="L9" s="3" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="10" ht="14.25" spans="1:12">
-      <c r="A10" s="5"/>
-      <c r="B10" s="4" t="s">
+      <c r="A10" s="4"/>
+      <c r="B10" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="E10" s="3">
-        <v>1</v>
-      </c>
-      <c r="L10" s="4" t="s">
+      <c r="E10" s="2">
+        <v>1</v>
+      </c>
+      <c r="L10" s="3" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="11" ht="14.25" spans="1:12">
-      <c r="A11" s="5"/>
-      <c r="B11" s="4" t="s">
+      <c r="A11" s="4"/>
+      <c r="B11" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E11" s="3">
-        <v>1</v>
-      </c>
-      <c r="F11" s="3">
-        <v>1</v>
-      </c>
-      <c r="L11" s="4" t="s">
+      <c r="E11" s="2">
+        <v>1</v>
+      </c>
+      <c r="F11" s="2">
+        <v>1</v>
+      </c>
+      <c r="L11" s="3" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="12" ht="14.25" spans="1:12">
-      <c r="A12" s="5"/>
-      <c r="B12" s="4" t="s">
+      <c r="A12" s="4"/>
+      <c r="B12" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E12" s="3">
-        <v>1</v>
-      </c>
-      <c r="F12" s="3"/>
-      <c r="L12" s="4" t="s">
+      <c r="E12" s="2">
+        <v>1</v>
+      </c>
+      <c r="F12" s="2"/>
+      <c r="L12" s="3" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="13" ht="14.25" spans="2:12">
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="L13" s="4"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="L13" s="3"/>
     </row>
     <row r="14" ht="14.25" spans="1:12">
-      <c r="A14" s="5" t="s">
+      <c r="A14" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C14" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D14" s="5">
-        <v>1</v>
-      </c>
-      <c r="E14" s="3">
-        <v>1</v>
-      </c>
-      <c r="F14" s="3">
-        <v>1</v>
-      </c>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="5"/>
-      <c r="J14" s="5">
-        <v>1</v>
-      </c>
-      <c r="K14" s="5"/>
-      <c r="L14" s="4" t="s">
+      <c r="D14" s="4">
+        <v>1</v>
+      </c>
+      <c r="E14" s="2">
+        <v>1</v>
+      </c>
+      <c r="F14" s="2">
+        <v>1</v>
+      </c>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4">
+        <v>1</v>
+      </c>
+      <c r="K14" s="4"/>
+      <c r="L14" s="3" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="15" ht="14.25" spans="1:12">
-      <c r="A15" s="5"/>
-      <c r="B15" s="4" t="s">
+      <c r="A15" s="4"/>
+      <c r="B15" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="C15" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E15" s="3">
-        <v>1</v>
-      </c>
-      <c r="F15" s="3">
-        <v>1</v>
-      </c>
-      <c r="L15" s="4" t="s">
+      <c r="E15" s="2">
+        <v>1</v>
+      </c>
+      <c r="F15" s="2">
+        <v>1</v>
+      </c>
+      <c r="L15" s="3" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="16" ht="14.25" spans="1:12">
-      <c r="A16" s="5"/>
-      <c r="B16" s="4" t="s">
+      <c r="A16" s="4"/>
+      <c r="B16" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C16" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E16" s="3">
-        <v>1</v>
-      </c>
-      <c r="F16" s="3">
-        <v>1</v>
-      </c>
-      <c r="L16" s="4" t="s">
+      <c r="E16" s="2">
+        <v>1</v>
+      </c>
+      <c r="F16" s="2">
+        <v>1</v>
+      </c>
+      <c r="L16" s="3" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="17" ht="14.25" spans="1:12">
-      <c r="A17" s="5"/>
-      <c r="B17" s="4" t="s">
+      <c r="A17" s="4"/>
+      <c r="B17" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="C17" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="E17" s="3">
-        <v>1</v>
-      </c>
-      <c r="L17" s="4" t="s">
+      <c r="E17" s="2">
+        <v>1</v>
+      </c>
+      <c r="L17" s="3" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="18" ht="14.25" spans="1:12">
-      <c r="A18" s="5"/>
-      <c r="B18" s="4" t="s">
+      <c r="A18" s="4"/>
+      <c r="B18" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="C18" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E18" s="3">
-        <v>1</v>
-      </c>
-      <c r="F18" s="3">
-        <v>1</v>
-      </c>
-      <c r="L18" s="4" t="s">
+      <c r="E18" s="2">
+        <v>1</v>
+      </c>
+      <c r="F18" s="2">
+        <v>1</v>
+      </c>
+      <c r="L18" s="3" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="19" ht="14.25" spans="1:12">
-      <c r="A19" s="5"/>
-      <c r="B19" s="4" t="s">
+      <c r="A19" s="4"/>
+      <c r="B19" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C19" s="4" t="s">
+      <c r="C19" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E19" s="3">
-        <v>1</v>
-      </c>
-      <c r="F19" s="3"/>
-      <c r="L19" s="4" t="s">
+      <c r="E19" s="2">
+        <v>1</v>
+      </c>
+      <c r="F19" s="2"/>
+      <c r="L19" s="3" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="21" ht="14.25" spans="1:12">
-      <c r="A21" s="5" t="s">
+      <c r="A21" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="B21" s="4" t="s">
+      <c r="B21" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="C21" s="4" t="s">
+      <c r="C21" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D21" s="5">
-        <v>1</v>
-      </c>
-      <c r="E21" s="3">
-        <v>1</v>
-      </c>
-      <c r="F21" s="3">
-        <v>1</v>
-      </c>
-      <c r="J21" s="5">
-        <v>1</v>
-      </c>
-      <c r="L21" s="4" t="s">
+      <c r="D21" s="4">
+        <v>1</v>
+      </c>
+      <c r="E21" s="2">
+        <v>1</v>
+      </c>
+      <c r="F21" s="2">
+        <v>1</v>
+      </c>
+      <c r="J21" s="4">
+        <v>1</v>
+      </c>
+      <c r="L21" s="3" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="22" ht="14.25" spans="1:12">
-      <c r="A22" s="5"/>
-      <c r="B22" s="4" t="s">
+      <c r="A22" s="4"/>
+      <c r="B22" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="C22" s="4" t="s">
+      <c r="C22" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="5"/>
-      <c r="E22" s="3">
-        <v>1</v>
-      </c>
-      <c r="F22" s="3">
-        <v>1</v>
-      </c>
-      <c r="J22" s="5"/>
-      <c r="L22" s="4" t="s">
+      <c r="D22" s="4"/>
+      <c r="E22" s="2">
+        <v>1</v>
+      </c>
+      <c r="F22" s="2">
+        <v>1</v>
+      </c>
+      <c r="J22" s="4"/>
+      <c r="L22" s="3" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="23" ht="14.25" spans="1:12">
-      <c r="A23" s="5"/>
-      <c r="B23" s="4" t="s">
+      <c r="A23" s="4"/>
+      <c r="B23" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="C23" s="4" t="s">
+      <c r="C23" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E23" s="3">
-        <v>1</v>
-      </c>
-      <c r="F23" s="5">
-        <v>1</v>
-      </c>
-      <c r="L23" s="4" t="s">
+      <c r="E23" s="2">
+        <v>1</v>
+      </c>
+      <c r="F23" s="4">
+        <v>1</v>
+      </c>
+      <c r="L23" s="3" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="24" ht="14.25" spans="1:12">
-      <c r="A24" s="5"/>
-      <c r="B24" s="4" t="s">
+      <c r="A24" s="4"/>
+      <c r="B24" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="C24" s="4" t="s">
+      <c r="C24" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="E24" s="3">
-        <v>1</v>
-      </c>
-      <c r="F24" s="5"/>
-      <c r="L24" s="4" t="s">
+      <c r="E24" s="2">
+        <v>1</v>
+      </c>
+      <c r="F24" s="4"/>
+      <c r="L24" s="3" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="26" ht="14.25" spans="1:12">
-      <c r="A26" s="5" t="s">
+      <c r="A26" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="B26" s="4" t="s">
+      <c r="B26" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="C26" s="4" t="s">
+      <c r="C26" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D26" s="5">
-        <v>1</v>
-      </c>
-      <c r="E26" s="3">
-        <v>1</v>
-      </c>
-      <c r="F26" s="3">
-        <v>1</v>
-      </c>
-      <c r="G26" s="5"/>
-      <c r="H26" s="5"/>
-      <c r="I26" s="5"/>
-      <c r="J26" s="5">
-        <v>1</v>
-      </c>
-      <c r="K26" s="5"/>
-      <c r="L26" s="4" t="s">
+      <c r="D26" s="4">
+        <v>1</v>
+      </c>
+      <c r="E26" s="2">
+        <v>1</v>
+      </c>
+      <c r="F26" s="2">
+        <v>1</v>
+      </c>
+      <c r="G26" s="4"/>
+      <c r="H26" s="4"/>
+      <c r="I26" s="4"/>
+      <c r="J26" s="4">
+        <v>1</v>
+      </c>
+      <c r="K26" s="4"/>
+      <c r="L26" s="3" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="27" ht="14.25" spans="1:12">
-      <c r="A27" s="5"/>
-      <c r="B27" s="4" t="s">
+      <c r="A27" s="4"/>
+      <c r="B27" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="C27" s="4" t="s">
+      <c r="C27" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E27" s="3">
-        <v>1</v>
-      </c>
-      <c r="F27" s="3">
-        <v>1</v>
-      </c>
-      <c r="L27" s="4" t="s">
+      <c r="E27" s="2">
+        <v>1</v>
+      </c>
+      <c r="F27" s="2">
+        <v>1</v>
+      </c>
+      <c r="L27" s="3" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="28" ht="14.25" spans="1:12">
-      <c r="A28" s="5"/>
-      <c r="B28" s="4" t="s">
+      <c r="A28" s="4"/>
+      <c r="B28" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="C28" s="4" t="s">
+      <c r="C28" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E28" s="3">
-        <v>1</v>
-      </c>
-      <c r="F28" s="3">
-        <v>1</v>
-      </c>
-      <c r="L28" s="4" t="s">
+      <c r="E28" s="2">
+        <v>1</v>
+      </c>
+      <c r="F28" s="2">
+        <v>1</v>
+      </c>
+      <c r="L28" s="3" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="29" ht="14.25" spans="1:12">
-      <c r="A29" s="5"/>
-      <c r="B29" s="4" t="s">
+      <c r="A29" s="4"/>
+      <c r="B29" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="C29" s="4" t="s">
+      <c r="C29" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="E29" s="3">
-        <v>1</v>
-      </c>
-      <c r="L29" s="4" t="s">
+      <c r="E29" s="2">
+        <v>1</v>
+      </c>
+      <c r="L29" s="3" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="30" ht="14.25" spans="1:12">
-      <c r="A30" s="5"/>
-      <c r="B30" s="4" t="s">
+      <c r="A30" s="4"/>
+      <c r="B30" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="C30" s="4" t="s">
+      <c r="C30" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E30" s="3">
-        <v>1</v>
-      </c>
-      <c r="F30" s="3">
-        <v>1</v>
-      </c>
-      <c r="L30" s="4" t="s">
+      <c r="E30" s="2">
+        <v>1</v>
+      </c>
+      <c r="F30" s="2">
+        <v>1</v>
+      </c>
+      <c r="L30" s="3" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="31" ht="14.25" spans="1:12">
-      <c r="A31" s="5"/>
-      <c r="B31" s="4" t="s">
+      <c r="A31" s="4"/>
+      <c r="B31" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="C31" s="4" t="s">
+      <c r="C31" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E31" s="3">
-        <v>1</v>
-      </c>
-      <c r="F31" s="3"/>
-      <c r="L31" s="4" t="s">
+      <c r="E31" s="2">
+        <v>1</v>
+      </c>
+      <c r="F31" s="2"/>
+      <c r="L31" s="3" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="32" ht="14.25" spans="1:12">
-      <c r="A32" s="5"/>
-      <c r="B32" s="4" t="s">
+      <c r="A32" s="4"/>
+      <c r="B32" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="C32" s="4" t="s">
+      <c r="C32" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E32" s="3">
-        <v>1</v>
-      </c>
-      <c r="F32" s="3"/>
-      <c r="L32" s="4" t="s">
+      <c r="E32" s="2">
+        <v>1</v>
+      </c>
+      <c r="F32" s="2"/>
+      <c r="L32" s="3" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="34" ht="14.25" spans="1:12">
-      <c r="A34" s="5" t="s">
+      <c r="A34" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="B34" s="4" t="s">
+      <c r="B34" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="C34" s="4" t="s">
+      <c r="C34" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D34" s="5">
-        <v>1</v>
-      </c>
-      <c r="E34" s="3">
-        <v>1</v>
-      </c>
-      <c r="F34" s="3">
-        <v>1</v>
-      </c>
-      <c r="L34" s="4" t="s">
+      <c r="D34" s="4">
+        <v>1</v>
+      </c>
+      <c r="E34" s="2">
+        <v>1</v>
+      </c>
+      <c r="F34" s="2">
+        <v>1</v>
+      </c>
+      <c r="L34" s="3" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="35" ht="14.25" spans="1:12">
-      <c r="A35" s="5"/>
-      <c r="B35" s="4" t="s">
+      <c r="A35" s="4"/>
+      <c r="B35" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="C35" s="4" t="s">
+      <c r="C35" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E35" s="3">
-        <v>1</v>
-      </c>
-      <c r="L35" s="4" t="s">
+      <c r="E35" s="2">
+        <v>1</v>
+      </c>
+      <c r="L35" s="3" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="36" ht="14.25" spans="1:12">
-      <c r="A36" s="5"/>
-      <c r="B36" s="4" t="s">
+      <c r="A36" s="4"/>
+      <c r="B36" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="C36" s="4" t="s">
+      <c r="C36" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="E36" s="3">
-        <v>1</v>
-      </c>
-      <c r="L36" s="4" t="s">
+      <c r="E36" s="2">
+        <v>1</v>
+      </c>
+      <c r="L36" s="3" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="37" ht="14.25" spans="1:12">
-      <c r="A37" s="5"/>
-      <c r="B37" s="4" t="s">
+      <c r="A37" s="4"/>
+      <c r="B37" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="C37" s="4" t="s">
+      <c r="C37" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E37" s="3">
-        <v>1</v>
-      </c>
-      <c r="L37" s="4" t="s">
+      <c r="E37" s="2">
+        <v>1</v>
+      </c>
+      <c r="L37" s="3" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="38" ht="14.25" spans="1:12">
-      <c r="A38" s="5"/>
-      <c r="B38" s="4" t="s">
+      <c r="A38" s="4"/>
+      <c r="B38" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="C38" s="4" t="s">
+      <c r="C38" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E38" s="3">
-        <v>1</v>
-      </c>
-      <c r="F38" s="5">
-        <v>1</v>
-      </c>
-      <c r="L38" s="4" t="s">
+      <c r="E38" s="2">
+        <v>1</v>
+      </c>
+      <c r="F38" s="4">
+        <v>1</v>
+      </c>
+      <c r="L38" s="3" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="40" ht="14.25" spans="1:12">
-      <c r="A40" s="5" t="s">
+      <c r="A40" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="B40" s="4" t="s">
+      <c r="B40" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="C40" s="4" t="s">
+      <c r="C40" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D40" s="5">
-        <v>1</v>
-      </c>
-      <c r="E40" s="3">
-        <v>1</v>
-      </c>
-      <c r="F40" s="5">
-        <v>1</v>
-      </c>
-      <c r="J40" s="5">
-        <v>1</v>
-      </c>
-      <c r="L40" s="4" t="s">
+      <c r="D40" s="4">
+        <v>1</v>
+      </c>
+      <c r="E40" s="2">
+        <v>1</v>
+      </c>
+      <c r="F40" s="4">
+        <v>1</v>
+      </c>
+      <c r="J40" s="4">
+        <v>1</v>
+      </c>
+      <c r="L40" s="3" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="41" ht="14.25" spans="1:12">
-      <c r="A41" s="5"/>
-      <c r="B41" s="4" t="s">
+      <c r="A41" s="4"/>
+      <c r="B41" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="C41" s="4" t="s">
+      <c r="C41" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E41" s="3">
-        <v>1</v>
-      </c>
-      <c r="F41" s="5">
-        <v>1</v>
-      </c>
-      <c r="L41" s="4" t="s">
+      <c r="E41" s="2">
+        <v>1</v>
+      </c>
+      <c r="F41" s="4">
+        <v>1</v>
+      </c>
+      <c r="L41" s="3" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="42" ht="14.25" spans="1:12">
-      <c r="A42" s="5"/>
-      <c r="B42" s="4" t="s">
+      <c r="A42" s="4"/>
+      <c r="B42" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="C42" s="4" t="s">
+      <c r="C42" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E42" s="3">
-        <v>1</v>
-      </c>
-      <c r="L42" s="4" t="s">
+      <c r="E42" s="2">
+        <v>1</v>
+      </c>
+      <c r="L42" s="3" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="44" ht="14.25" spans="1:12">
-      <c r="A44" s="5" t="s">
+      <c r="A44" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="B44" s="4" t="s">
+      <c r="B44" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="C44" s="4" t="s">
+      <c r="C44" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D44" s="5">
-        <v>1</v>
-      </c>
-      <c r="E44" s="3">
-        <v>1</v>
-      </c>
-      <c r="F44" s="5">
-        <v>1</v>
-      </c>
-      <c r="J44" s="5">
-        <v>1</v>
-      </c>
-      <c r="L44" s="4" t="s">
+      <c r="D44" s="4">
+        <v>1</v>
+      </c>
+      <c r="E44" s="2">
+        <v>1</v>
+      </c>
+      <c r="F44" s="4">
+        <v>1</v>
+      </c>
+      <c r="J44" s="4">
+        <v>1</v>
+      </c>
+      <c r="L44" s="3" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="45" ht="14.25" spans="1:12">
-      <c r="A45" s="5"/>
-      <c r="B45" s="4" t="s">
+      <c r="A45" s="4"/>
+      <c r="B45" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="C45" s="4" t="s">
+      <c r="C45" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E45" s="3">
-        <v>1</v>
-      </c>
-      <c r="F45" s="5">
-        <v>1</v>
-      </c>
-      <c r="L45" s="4" t="s">
+      <c r="E45" s="2">
+        <v>1</v>
+      </c>
+      <c r="F45" s="4">
+        <v>1</v>
+      </c>
+      <c r="L45" s="3" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="46" ht="14.25" spans="1:12">
-      <c r="A46" s="5"/>
-      <c r="B46" s="4" t="s">
+      <c r="A46" s="4"/>
+      <c r="B46" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="C46" s="4" t="s">
+      <c r="C46" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E46" s="3">
-        <v>1</v>
-      </c>
-      <c r="F46" s="5">
+      <c r="E46" s="2">
+        <v>1</v>
+      </c>
+      <c r="F46" s="4">
         <v>1</v>
       </c>
       <c r="L46" t="s">
@@ -2199,67 +2206,67 @@
       </c>
     </row>
     <row r="47" ht="14.25" spans="1:12">
-      <c r="A47" s="5"/>
-      <c r="B47" s="4" t="s">
+      <c r="A47" s="4"/>
+      <c r="B47" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="C47" s="4" t="s">
+      <c r="C47" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E47" s="3">
-        <v>1</v>
-      </c>
-      <c r="F47" s="5">
-        <v>1</v>
-      </c>
-      <c r="L47" s="4" t="s">
+      <c r="E47" s="2">
+        <v>1</v>
+      </c>
+      <c r="F47" s="4">
+        <v>1</v>
+      </c>
+      <c r="L47" s="3" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="48" ht="14.25" spans="1:12">
-      <c r="A48" s="5"/>
+      <c r="A48" s="4"/>
       <c r="B48" t="s">
         <v>90</v>
       </c>
-      <c r="C48" s="4" t="s">
+      <c r="C48" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E48" s="3">
-        <v>1</v>
-      </c>
-      <c r="F48" s="5"/>
-      <c r="L48" s="4" t="s">
+      <c r="E48" s="2">
+        <v>1</v>
+      </c>
+      <c r="F48" s="4"/>
+      <c r="L48" s="3" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="49" ht="14.25" spans="1:12">
-      <c r="A49" s="5"/>
-      <c r="B49" s="4" t="s">
+      <c r="A49" s="4"/>
+      <c r="B49" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="C49" s="4" t="s">
+      <c r="C49" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E49" s="3">
-        <v>1</v>
-      </c>
-      <c r="F49" s="5"/>
-      <c r="L49" s="4" t="s">
+      <c r="E49" s="2">
+        <v>1</v>
+      </c>
+      <c r="F49" s="4"/>
+      <c r="L49" s="3" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="50" ht="14.25" spans="1:12">
-      <c r="A50" s="5"/>
-      <c r="B50" s="4" t="s">
+      <c r="A50" s="4"/>
+      <c r="B50" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="C50" s="4" t="s">
+      <c r="C50" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="E50" s="3">
-        <v>1</v>
-      </c>
-      <c r="L50" s="4" t="s">
+      <c r="E50" s="2">
+        <v>1</v>
+      </c>
+      <c r="L50" s="3" t="s">
         <v>95</v>
       </c>
     </row>

--- a/网站项目文档/6数据库设计&文档&字段说明&sql文件/SunOnlineSQL.xlsx
+++ b/网站项目文档/6数据库设计&文档&字段说明&sql文件/SunOnlineSQL.xlsx
@@ -422,9 +422,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -1382,7 +1382,7 @@
   <sheetPr/>
   <dimension ref="A1:L50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G27" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
       <selection activeCell="L49" sqref="L49"/>
     </sheetView>
   </sheetViews>

--- a/网站项目文档/6数据库设计&文档&字段说明&sql文件/SunOnlineSQL.xlsx
+++ b/网站项目文档/6数据库设计&文档&字段说明&sql文件/SunOnlineSQL.xlsx
@@ -335,10 +335,10 @@
     </r>
   </si>
   <si>
-    <t>BOOLEAN</t>
-  </si>
-  <si>
-    <t>存储每个演唱者的性别(需要限制男女，true表示男，false表示女)</t>
+    <t>TINYINT</t>
+  </si>
+  <si>
+    <t>存储每个演唱者的性别(需要限制男女，1表示男，0表示女)</t>
   </si>
   <si>
     <t>player_school</t>
@@ -608,36 +608,168 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -650,145 +782,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -907,145 +907,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1382,13 +1382,13 @@
   <sheetPr/>
   <dimension ref="A1:L50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="L49" sqref="L49"/>
+    <sheetView tabSelected="1" topLeftCell="G25" workbookViewId="0">
+      <selection activeCell="L36" sqref="L36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83333333333333" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="24.3333333333333" customWidth="1"/>
+    <col min="1" max="1" width="22.25" customWidth="1"/>
     <col min="2" max="2" width="26.3333333333333" customWidth="1"/>
     <col min="3" max="3" width="13.6666666666667" customWidth="1"/>
     <col min="4" max="4" width="18" customWidth="1"/>
